--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
@@ -761,11 +765,11 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
@@ -773,16 +777,19 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,16 +835,19 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -855,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -867,16 +877,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,17 +1005,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1061,8 +1084,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,78 +1124,82 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1181,19 +1211,22 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1244,36 +1278,39 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1288,25 +1325,28 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,7 +1357,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1349,19 +1389,22 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1370,37 +1413,40 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,16 +1542,19 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1511,45 +1563,48 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -1558,37 +1613,40 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1808,30 +1878,33 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -1840,37 +1913,40 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,16 +1992,19 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -1934,89 +2013,95 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,31 +2139,32 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2085,8 +2172,8 @@
       <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
+      <c r="M41" s="3">
+        <v>100</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
@@ -2097,11 +2184,14 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2171,16 +2264,16 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
@@ -2191,11 +2284,14 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2273,8 +2372,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -2285,11 +2384,14 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2303,11 +2405,11 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
@@ -2315,13 +2417,13 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
+      <c r="M46" s="3">
+        <v>200</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
@@ -2332,11 +2434,14 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2414,8 +2522,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
@@ -2426,11 +2534,14 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2679,11 +2805,11 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
@@ -2691,13 +2817,13 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
+      <c r="M54" s="3">
+        <v>200</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
@@ -2708,11 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,7 +2889,7 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
@@ -2767,23 +2898,23 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2793,11 +2924,14 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,31 +2939,31 @@
         <v>1800</v>
       </c>
       <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1500</v>
       </c>
       <c r="H58" s="3">
         <v>1500</v>
       </c>
       <c r="I58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J58" s="3">
         <v>1400</v>
       </c>
       <c r="K58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>1300</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2840,44 +2974,47 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
         <v>2500</v>
       </c>
       <c r="F59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2000</v>
       </c>
       <c r="K59" s="3">
         <v>2000</v>
       </c>
       <c r="L59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2887,44 +3024,47 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2934,11 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3327,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3216,11 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3597,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-14500</v>
+        <v>-14700</v>
       </c>
       <c r="E72" s="3">
         <v>-14500</v>
       </c>
       <c r="F72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3470,11 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3797,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="E76" s="3">
         <v>-4500</v>
       </c>
       <c r="F76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3658,11 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,68 +3897,74 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -3778,37 +3973,40 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3861,20 +4060,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,25 +4322,28 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4135,28 +4352,31 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4212,17 +4433,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4341,14 +4571,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4356,14 +4586,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,22 +4824,22 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -4602,7 +4848,7 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4610,14 +4856,17 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4684,16 +4936,16 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4702,12 +4954,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,11 +751,11 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
@@ -768,11 +772,11 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
@@ -780,21 +784,24 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -838,19 +845,22 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -868,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -880,16 +890,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,11 +1037,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1037,8 +1057,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1087,8 +1110,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,85 +1151,89 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
@@ -1214,19 +1244,22 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1281,39 +1315,42 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1328,25 +1365,28 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1400,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1392,22 +1432,25 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1416,37 +1459,40 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,19 +1594,22 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1566,48 +1618,51 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1616,37 +1671,40 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1881,33 +1951,36 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -1916,37 +1989,40 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,19 +2071,22 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -2016,92 +2095,98 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,34 +2226,35 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2175,8 +2262,8 @@
       <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
+      <c r="N41" s="3">
+        <v>100</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
@@ -2187,11 +2274,14 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2267,16 +2360,16 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
@@ -2287,11 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2375,8 +2474,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
@@ -2387,11 +2486,14 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2408,11 +2510,11 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
@@ -2420,13 +2522,13 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
+      <c r="N46" s="3">
+        <v>200</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
@@ -2437,11 +2539,14 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2525,8 +2633,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
@@ -2537,11 +2645,14 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2808,11 +2934,11 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
@@ -2820,13 +2946,13 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
+      <c r="N54" s="3">
+        <v>200</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
@@ -2837,11 +2963,14 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,7 +3023,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
@@ -2901,23 +3032,23 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2927,46 +3058,49 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
         <v>1800</v>
       </c>
       <c r="F58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1500</v>
       </c>
       <c r="I58" s="3">
         <v>1500</v>
       </c>
       <c r="J58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K58" s="3">
         <v>1400</v>
       </c>
       <c r="L58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>1300</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -2977,47 +3111,50 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2500</v>
       </c>
       <c r="F59" s="3">
         <v>2500</v>
       </c>
       <c r="G59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2000</v>
       </c>
       <c r="L59" s="3">
         <v>2000</v>
       </c>
       <c r="M59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3027,47 +3164,50 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3077,11 +3217,14 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3377,11 +3535,14 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-14500</v>
       </c>
       <c r="F72" s="3">
         <v>-14500</v>
       </c>
       <c r="G72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3647,11 +3821,14 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-4500</v>
       </c>
       <c r="F76" s="3">
         <v>-4500</v>
       </c>
       <c r="G76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3847,11 +4033,14 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,74 +4089,80 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -3976,37 +4171,40 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4063,20 +4262,23 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,28 +4539,31 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4355,28 +4572,31 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4436,17 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4574,14 +4804,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4589,14 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,22 +5073,22 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -4851,7 +5097,7 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4859,14 +5105,17 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,13 +5164,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4939,16 +5191,16 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4957,12 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
@@ -775,39 +782,45 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -848,16 +861,22 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -866,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -881,28 +900,34 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,14 +1079,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1060,11 +1099,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,11 +1158,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1203,18 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1170,10 +1223,10 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1191,42 +1244,48 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1238,7 +1297,7 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1247,19 +1306,25 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1344,15 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1318,45 +1385,51 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1368,25 +1441,31 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1473,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1403,10 +1482,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1435,64 +1514,76 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +2048,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1954,75 +2093,87 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2398,15 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2245,31 +2418,31 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
@@ -2277,11 +2450,17 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2363,19 +2548,19 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
@@ -2383,11 +2568,17 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2477,11 +2674,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
@@ -2489,16 +2686,22 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2513,40 +2716,46 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2807,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2636,11 +2851,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
@@ -2648,11 +2863,17 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3161,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2937,40 +3188,46 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,31 +3270,33 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -3049,11 +3310,11 @@
       <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
+      <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
@@ -3061,175 +3322,199 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4265,20 +4662,26 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,16 +4969,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4560,22 +4993,22 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4584,19 +5017,25 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +5055,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4630,17 +5071,17 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4660,17 +5101,23 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4807,29 +5266,35 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5546,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,13 +5561,13 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5094,28 +5585,34 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,19 +5664,25 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5194,30 +5697,36 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,20 +762,20 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
@@ -788,11 +792,11 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
@@ -800,30 +804,33 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,19 +886,19 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -906,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -918,16 +928,19 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,11 +1105,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1105,8 +1125,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,35 +1303,35 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
@@ -1312,19 +1342,22 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1391,22 +1425,25 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,25 +1451,25 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1447,25 +1484,28 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,11 +1513,11 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
@@ -1488,7 +1528,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1520,31 +1560,34 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1553,37 +1596,40 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,28 +1749,31 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
@@ -1730,57 +1782,60 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
@@ -1789,37 +1844,40 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2099,42 +2169,45 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
@@ -2143,37 +2216,40 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,28 +2307,31 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
@@ -2261,101 +2340,107 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,43 +2486,44 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2444,8 +2531,8 @@
       <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
+      <c r="Q41" s="3">
+        <v>100</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
@@ -2456,11 +2543,14 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2539,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2554,16 +2647,16 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
+      <c r="Q43" s="3">
+        <v>100</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
@@ -2574,11 +2667,14 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2680,8 +2779,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
@@ -2692,19 +2791,22 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2722,11 +2824,11 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
@@ -2734,13 +2836,13 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
+      <c r="Q46" s="3">
+        <v>200</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
@@ -2751,11 +2853,14 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2857,8 +2965,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
@@ -2869,11 +2977,14 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3194,11 +3320,11 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
@@ -3206,13 +3332,13 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
+      <c r="Q54" s="3">
+        <v>200</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
@@ -3223,11 +3349,14 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,10 +3412,10 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3293,7 +3424,7 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -3302,23 +3433,23 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3328,55 +3459,58 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1900</v>
       </c>
       <c r="F58" s="3">
         <v>1900</v>
       </c>
       <c r="G58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>1800</v>
       </c>
       <c r="I58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1500</v>
       </c>
       <c r="L58" s="3">
         <v>1500</v>
       </c>
       <c r="M58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N58" s="3">
         <v>1400</v>
       </c>
       <c r="O58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>1300</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3387,11 +3521,14 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3402,41 +3539,41 @@
         <v>2800</v>
       </c>
       <c r="F59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2500</v>
       </c>
       <c r="I59" s="3">
         <v>2500</v>
       </c>
       <c r="J59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2000</v>
       </c>
       <c r="O59" s="3">
         <v>2000</v>
       </c>
       <c r="P59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3446,56 +3583,59 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3505,19 +3645,22 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,53 +3958,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3859,11 +4017,14 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,53 +4292,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-14500</v>
       </c>
       <c r="I72" s="3">
         <v>-14500</v>
       </c>
       <c r="J72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4177,11 +4351,14 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,53 +4540,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-4500</v>
       </c>
       <c r="I76" s="3">
         <v>-4500</v>
       </c>
       <c r="J76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4413,11 +4599,14 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,92 +4664,98 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
@@ -4569,37 +4764,40 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4668,20 +4867,23 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,28 +5201,28 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5014,28 +5231,31 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,22 +5277,23 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -5083,8 +5304,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5107,17 +5328,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5272,14 +5502,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5287,14 +5517,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,11 +5807,11 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
@@ -5573,22 +5819,22 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -5597,7 +5843,7 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5605,14 +5851,17 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5682,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5703,16 +5955,16 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5721,12 +5973,15 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,23 +766,23 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
@@ -795,11 +799,11 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
@@ -807,33 +811,36 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,22 +896,22 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -919,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -931,16 +941,19 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,11 +1128,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1148,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,8 +1213,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1306,34 +1336,34 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1345,19 +1375,22 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1428,22 +1462,25 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1454,25 +1491,25 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1487,25 +1524,28 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,11 +1556,11 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
@@ -1531,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1563,34 +1603,37 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1599,37 +1642,40 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,31 +1801,34 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -1785,60 +1837,63 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -1847,37 +1902,40 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2172,45 +2242,48 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -2219,37 +2292,40 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,31 +2386,34 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -2343,104 +2422,110 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,46 +2573,47 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2534,8 +2621,8 @@
       <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
+      <c r="R41" s="3">
+        <v>100</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
@@ -2546,11 +2633,14 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2635,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2650,16 +2743,16 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
@@ -2670,11 +2763,14 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2782,8 +2881,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
@@ -2794,22 +2893,25 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2827,11 +2929,11 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
@@ -2839,13 +2941,13 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
+      <c r="R46" s="3">
+        <v>200</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
@@ -2856,11 +2958,14 @@
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2968,8 +3076,8 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
@@ -2980,11 +3088,14 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,13 +3416,16 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3323,11 +3449,11 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
@@ -3335,13 +3461,13 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
+      <c r="R54" s="3">
+        <v>200</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
@@ -3352,11 +3478,14 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,22 +3533,23 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3427,7 +3558,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -3436,23 +3567,23 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3462,58 +3593,61 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1900</v>
       </c>
       <c r="G58" s="3">
         <v>1900</v>
       </c>
       <c r="H58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I58" s="3">
         <v>1800</v>
       </c>
       <c r="J58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O58" s="3">
         <v>1400</v>
       </c>
       <c r="P58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>1300</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -3524,16 +3658,19 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E59" s="3">
         <v>2800</v>
@@ -3542,41 +3679,41 @@
         <v>2800</v>
       </c>
       <c r="G59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2500</v>
       </c>
       <c r="J59" s="3">
         <v>2500</v>
       </c>
       <c r="K59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2000</v>
       </c>
       <c r="P59" s="3">
         <v>2000</v>
       </c>
       <c r="Q59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3586,59 +3723,62 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3648,11 +3788,14 @@
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4020,11 +4178,14 @@
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-14500</v>
       </c>
       <c r="J72" s="3">
         <v>-14500</v>
       </c>
       <c r="K72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-14300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4354,11 +4528,14 @@
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-4500</v>
       </c>
       <c r="J76" s="3">
         <v>-4500</v>
       </c>
       <c r="K76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4602,11 +4788,14 @@
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,98 +4856,104 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -4767,37 +4962,40 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4870,20 +5069,23 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,31 +5418,31 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5234,28 +5451,31 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5289,14 +5510,14 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -5307,8 +5528,8 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5331,17 +5552,20 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5505,14 +5735,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5520,14 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,14 +6053,14 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
@@ -5822,22 +6068,22 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -5846,7 +6092,7 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5854,14 +6100,17 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5937,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -5958,16 +6210,16 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5976,12 +6228,15 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
@@ -802,11 +806,11 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
@@ -814,21 +818,24 @@
         <v>100</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -837,13 +844,13 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -887,34 +894,37 @@
       <c r="W9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -932,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -944,16 +954,19 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,13 +1124,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1131,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-200</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1151,8 +1171,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1216,8 +1239,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,78 +1285,82 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
@@ -1339,34 +1369,34 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1378,19 +1408,22 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1465,54 +1499,57 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1527,25 +1564,28 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,11 +1599,11 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
@@ -1574,7 +1614,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1606,11 +1646,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,25 +1661,25 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
@@ -1645,37 +1688,40 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,25 +1865,25 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
@@ -1840,37 +1892,40 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,25 +1933,25 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
@@ -1905,37 +1960,40 @@
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2245,22 +2315,25 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,25 +2341,25 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
@@ -2295,37 +2368,40 @@
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,25 +2477,25 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
@@ -2425,107 +2504,113 @@
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,40 +2670,40 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2624,8 +2711,8 @@
       <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
+      <c r="S41" s="3">
+        <v>100</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
@@ -2636,11 +2723,14 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2731,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2746,16 +2839,16 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
@@ -2766,11 +2859,14 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2884,8 +2983,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
@@ -2896,11 +2995,14 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2932,11 +3034,11 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
@@ -2944,13 +3046,13 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
+      <c r="S46" s="3">
+        <v>200</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
@@ -2961,11 +3063,14 @@
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3079,8 +3187,8 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
@@ -3091,11 +3199,14 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -3452,11 +3578,11 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
@@ -3464,13 +3590,13 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
+      <c r="S54" s="3">
+        <v>200</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
@@ -3481,11 +3607,14 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,25 +3664,26 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3561,7 +3692,7 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -3570,23 +3701,23 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3596,11 +3727,14 @@
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,49 +3742,49 @@
         <v>2300</v>
       </c>
       <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>1900</v>
       </c>
       <c r="I58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J58" s="3">
         <v>1800</v>
       </c>
       <c r="K58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1500</v>
       </c>
       <c r="N58" s="3">
         <v>1500</v>
       </c>
       <c r="O58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P58" s="3">
         <v>1400</v>
       </c>
       <c r="Q58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>1300</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3661,19 +3795,22 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2800</v>
       </c>
       <c r="F59" s="3">
         <v>2800</v>
@@ -3682,41 +3819,41 @@
         <v>2800</v>
       </c>
       <c r="H59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2500</v>
       </c>
       <c r="K59" s="3">
         <v>2500</v>
       </c>
       <c r="L59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2000</v>
       </c>
       <c r="Q59" s="3">
         <v>2000</v>
       </c>
       <c r="R59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3726,62 +3863,65 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3791,11 +3931,14 @@
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4181,11 +4339,14 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-14500</v>
       </c>
       <c r="K72" s="3">
         <v>-14500</v>
       </c>
       <c r="L72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-14300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4531,11 +4705,14 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-4500</v>
       </c>
       <c r="K76" s="3">
         <v>-4500</v>
       </c>
       <c r="L76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4791,11 +4977,14 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,25 +5133,25 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
@@ -4965,37 +5160,40 @@
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5072,20 +5271,23 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,34 +5635,34 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -5454,28 +5671,31 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5513,14 +5734,14 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -5531,8 +5752,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5555,17 +5776,20 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5738,14 +5968,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5753,14 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,17 +6299,17 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
@@ -6071,22 +6317,22 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -6095,7 +6341,7 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6103,14 +6349,17 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6192,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6213,16 +6465,16 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6231,12 +6483,15 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,29 +773,29 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
@@ -809,11 +812,11 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
@@ -821,16 +824,19 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -847,13 +853,13 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,28 +915,28 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -945,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -957,16 +966,19 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,17 +1143,20 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1154,11 +1173,11 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1174,8 +1193,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,8 +1264,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,84 +1311,88 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1372,35 +1401,35 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
@@ -1411,19 +1440,22 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,16 +1480,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1502,57 +1535,60 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1567,25 +1603,28 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1602,11 +1641,11 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
@@ -1617,7 +1656,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1649,40 +1688,43 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1691,37 +1733,40 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,37 +1904,40 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -1895,66 +1946,69 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
@@ -1963,37 +2017,40 @@
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,16 +2330,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2318,51 +2387,54 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
@@ -2371,37 +2443,40 @@
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,37 +2543,40 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
@@ -2507,110 +2585,116 @@
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,40 +2759,40 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2714,8 +2800,8 @@
       <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
+      <c r="T41" s="3">
+        <v>100</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
@@ -2726,11 +2812,14 @@
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2827,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2842,16 +2934,16 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
+      <c r="T43" s="3">
+        <v>100</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
@@ -2862,11 +2954,14 @@
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
@@ -2998,11 +3096,14 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3013,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3037,11 +3138,11 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
@@ -3049,13 +3150,13 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
+      <c r="T46" s="3">
+        <v>200</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
@@ -3066,11 +3167,14 @@
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3190,8 +3297,8 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
@@ -3202,11 +3309,14 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3557,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -3581,11 +3706,11 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
@@ -3593,13 +3718,13 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
+      <c r="T54" s="3">
+        <v>200</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
@@ -3610,11 +3735,14 @@
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,28 +3794,29 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3695,7 +3825,7 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -3704,23 +3834,23 @@
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3730,64 +3860,67 @@
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E58" s="3">
         <v>2300</v>
       </c>
       <c r="F58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1900</v>
       </c>
       <c r="I58" s="3">
         <v>1900</v>
       </c>
       <c r="J58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>1800</v>
       </c>
       <c r="L58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1500</v>
       </c>
       <c r="O58" s="3">
         <v>1500</v>
       </c>
       <c r="P58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q58" s="3">
         <v>1400</v>
       </c>
       <c r="R58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>1300</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -3798,22 +3931,25 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2800</v>
       </c>
       <c r="G59" s="3">
         <v>2800</v>
@@ -3822,41 +3958,41 @@
         <v>2800</v>
       </c>
       <c r="I59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2500</v>
       </c>
       <c r="L59" s="3">
         <v>2500</v>
       </c>
       <c r="M59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2000</v>
       </c>
       <c r="R59" s="3">
         <v>2000</v>
       </c>
       <c r="S59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3866,65 +4002,68 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3934,11 +4073,14 @@
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3952,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4431,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4342,11 +4499,14 @@
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,62 +4813,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-14500</v>
       </c>
       <c r="L72" s="3">
         <v>-14500</v>
       </c>
       <c r="M72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-14300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4708,11 +4881,14 @@
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5097,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-4500</v>
       </c>
       <c r="L76" s="3">
         <v>-4500</v>
       </c>
       <c r="M76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="N76" s="3">
         <v>-4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4980,11 +5165,14 @@
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,110 +5239,116 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
@@ -5163,37 +5357,40 @@
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5274,20 +5472,23 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5638,34 +5854,34 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -5674,28 +5890,31 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5737,14 +5957,14 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5755,8 +5975,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5779,17 +5999,20 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5971,14 +6200,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5986,14 +6215,17 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,17 +6547,17 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
@@ -6320,22 +6565,22 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -6344,7 +6589,7 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6352,14 +6597,17 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6447,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6468,16 +6719,16 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -6486,12 +6737,15 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
@@ -815,11 +819,11 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
@@ -827,16 +831,19 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -856,13 +863,13 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -906,40 +913,43 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -957,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -969,16 +979,19 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,20 +1163,23 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1176,11 +1196,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1196,8 +1216,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,8 +1290,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1321,81 +1348,84 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1404,35 +1434,35 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
@@ -1443,19 +1473,22 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,19 +1514,20 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1538,60 +1572,63 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
@@ -1606,25 +1643,28 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1644,11 +1684,11 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
@@ -1659,7 +1699,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1691,43 +1731,46 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
@@ -1736,37 +1779,40 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,40 +1956,43 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
@@ -1949,69 +2001,72 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
@@ -2020,37 +2075,40 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,19 +2400,22 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2390,54 +2460,57 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
@@ -2446,37 +2519,40 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,40 +2622,43 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
@@ -2588,113 +2667,119 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2762,40 +2849,40 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -2803,8 +2890,8 @@
       <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
+      <c r="U41" s="3">
+        <v>100</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
@@ -2815,11 +2902,14 @@
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2922,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2937,16 +3030,16 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
+      <c r="U43" s="3">
+        <v>100</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
@@ -2957,11 +3050,14 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3186,8 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
@@ -3099,11 +3198,14 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3117,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3141,11 +3243,11 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
@@ -3153,13 +3255,13 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
+      <c r="U46" s="3">
+        <v>200</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
@@ -3170,11 +3272,14 @@
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3300,8 +3408,8 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
@@ -3312,11 +3420,14 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3685,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -3709,11 +3835,11 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
@@ -3721,13 +3847,13 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
+      <c r="U54" s="3">
+        <v>200</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
@@ -3738,11 +3864,14 @@
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,31 +3925,32 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3828,7 +3959,7 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -3837,23 +3968,23 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3863,67 +3994,70 @@
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>2300</v>
       </c>
       <c r="G58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1900</v>
       </c>
       <c r="J58" s="3">
         <v>1900</v>
       </c>
       <c r="K58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L58" s="3">
         <v>1800</v>
       </c>
       <c r="M58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1500</v>
       </c>
       <c r="P58" s="3">
         <v>1500</v>
       </c>
       <c r="Q58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="R58" s="3">
         <v>1400</v>
       </c>
       <c r="S58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3">
+        <v>1300</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -3934,25 +4068,28 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2800</v>
       </c>
       <c r="H59" s="3">
         <v>2800</v>
@@ -3961,41 +4098,41 @@
         <v>2800</v>
       </c>
       <c r="J59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2500</v>
       </c>
       <c r="M59" s="3">
         <v>2500</v>
       </c>
       <c r="N59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>2000</v>
       </c>
       <c r="S59" s="3">
         <v>2000</v>
       </c>
       <c r="T59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4005,11 +4142,14 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4017,56 +4157,56 @@
         <v>5700</v>
       </c>
       <c r="E60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4076,11 +4216,14 @@
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4097,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,65 +4589,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4502,11 +4660,14 @@
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,56 +4999,56 @@
         <v>-16000</v>
       </c>
       <c r="E72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-14500</v>
       </c>
       <c r="M72" s="3">
         <v>-14500</v>
       </c>
       <c r="N72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-14300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4884,11 +5058,14 @@
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5109,56 +5295,56 @@
         <v>-5700</v>
       </c>
       <c r="E76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-4500</v>
       </c>
       <c r="M76" s="3">
         <v>-4500</v>
       </c>
       <c r="N76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="O76" s="3">
         <v>-4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5168,11 +5354,14 @@
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,116 +5431,122 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
@@ -5360,37 +5555,40 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5475,20 +5674,23 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5857,34 +6074,34 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -5893,28 +6110,31 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5960,14 +6181,14 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5978,8 +6199,8 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6002,17 +6223,20 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6203,14 +6433,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6218,14 +6448,17 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6550,17 +6796,17 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
@@ -6568,22 +6814,22 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -6592,7 +6838,7 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6600,14 +6846,17 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6701,10 +6953,10 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6722,16 +6974,16 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6740,12 +6992,15 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -783,29 +787,29 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
@@ -822,11 +826,11 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
@@ -834,16 +838,19 @@
         <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -866,13 +873,13 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -916,43 +923,46 @@
       <c r="Z9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -970,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -982,16 +992,19 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,23 +1183,26 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1199,11 +1219,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1219,8 +1239,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1293,8 +1316,8 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,87 +1375,90 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1437,35 +1467,35 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
@@ -1476,19 +1506,22 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,22 +1548,23 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1575,63 +1609,66 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1646,25 +1683,28 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +1712,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1687,11 +1727,11 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
@@ -1702,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1734,46 +1774,49 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
@@ -1782,37 +1825,40 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,43 +2008,46 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
@@ -2004,72 +2056,75 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
@@ -2078,37 +2133,40 @@
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,22 +2470,25 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2463,57 +2533,60 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
@@ -2522,37 +2595,40 @@
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,43 +2701,46 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
@@ -2670,116 +2749,122 @@
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2852,40 +2939,40 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -2893,8 +2980,8 @@
       <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
+      <c r="V41" s="3">
+        <v>100</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
@@ -2905,11 +2992,14 @@
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3018,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -3033,16 +3126,16 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
+      <c r="V43" s="3">
+        <v>100</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
@@ -3053,11 +3146,14 @@
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3189,8 +3288,8 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
@@ -3201,11 +3300,14 @@
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3222,13 +3324,13 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -3246,11 +3348,11 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
@@ -3258,13 +3360,13 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
+      <c r="V46" s="3">
+        <v>200</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
@@ -3275,11 +3377,14 @@
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3411,8 +3519,8 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
@@ -3423,11 +3531,14 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3814,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -3838,11 +3964,11 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
@@ -3850,13 +3976,13 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
+      <c r="V54" s="3">
+        <v>200</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
@@ -3867,11 +3993,14 @@
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,34 +4056,35 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3962,7 +4093,7 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -3971,23 +4102,23 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3997,11 +4128,14 @@
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4009,58 +4143,58 @@
         <v>2500</v>
       </c>
       <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
       </c>
       <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>1900</v>
       </c>
       <c r="L58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M58" s="3">
         <v>1800</v>
       </c>
       <c r="N58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1500</v>
       </c>
       <c r="Q58" s="3">
         <v>1500</v>
       </c>
       <c r="R58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="S58" s="3">
         <v>1400</v>
       </c>
       <c r="T58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="U58" s="3">
         <v>1300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>1300</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4071,28 +4205,31 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2800</v>
       </c>
       <c r="I59" s="3">
         <v>2800</v>
@@ -4101,41 +4238,41 @@
         <v>2800</v>
       </c>
       <c r="K59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2500</v>
       </c>
       <c r="N59" s="3">
         <v>2500</v>
       </c>
       <c r="O59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>2000</v>
       </c>
       <c r="T59" s="3">
         <v>2000</v>
       </c>
       <c r="U59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4145,11 +4282,14 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4160,56 +4300,56 @@
         <v>5700</v>
       </c>
       <c r="F60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4219,11 +4359,14 @@
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4243,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,68 +4747,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4663,11 +4821,14 @@
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,68 +5161,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="E72" s="3">
         <v>-16000</v>
       </c>
       <c r="F72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-14500</v>
       </c>
       <c r="N72" s="3">
         <v>-14500</v>
       </c>
       <c r="O72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="P72" s="3">
         <v>-14300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5061,11 +5235,14 @@
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5298,56 +5484,56 @@
         <v>-5700</v>
       </c>
       <c r="F76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-4500</v>
       </c>
       <c r="N76" s="3">
         <v>-4500</v>
       </c>
       <c r="O76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5357,11 +5543,14 @@
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,122 +5623,128 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
@@ -5558,37 +5753,40 @@
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5677,20 +5876,23 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6068,7 +6285,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -6077,34 +6294,34 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -6113,28 +6330,31 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6184,14 +6405,14 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -6202,8 +6423,8 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6226,17 +6447,20 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6436,14 +6666,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6451,14 +6681,17 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,7 +7036,7 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -6799,17 +7045,17 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
@@ -6817,22 +7063,22 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -6841,7 +7087,7 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6849,14 +7095,17 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6956,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6977,16 +7229,16 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -6995,12 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,7 +797,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -799,23 +806,23 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
@@ -829,28 +836,34 @@
         <v>100</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,31 +954,31 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -968,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -983,28 +1002,34 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,29 +1219,35 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1222,14 +1261,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1242,11 +1281,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1319,11 +1364,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1417,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,31 +1428,31 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1408,10 +1461,10 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1429,22 +1482,28 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,43 +1511,43 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1500,7 +1559,7 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
@@ -1509,19 +1568,25 @@
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,28 +1614,30 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1612,70 +1679,76 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
@@ -1686,25 +1759,31 @@
         <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,14 +1791,14 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
@@ -1730,14 +1809,14 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
@@ -1745,10 +1824,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1777,88 +1856,100 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,28 +2606,34 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2536,99 +2675,111 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3092,10 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2942,16 +3115,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2963,31 +3136,31 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
@@ -2995,11 +3168,17 @@
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3254,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3114,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3129,19 +3314,19 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
@@ -3149,11 +3334,17 @@
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3291,11 +3488,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
@@ -3303,11 +3500,17 @@
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3327,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3336,7 +3539,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -3351,40 +3554,46 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3669,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3522,11 +3737,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
@@ -3534,11 +3749,17 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4167,14 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3943,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -3967,40 +4218,46 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4316,10 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,10 +4327,10 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
@@ -4078,34 +4339,34 @@
         <v>600</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -4119,11 +4380,11 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
+        <v>300</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>8</v>
@@ -4131,242 +4392,266 @@
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2800</v>
       </c>
       <c r="K59" s="3">
         <v>2800</v>
       </c>
       <c r="L59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5700</v>
+        <v>6300</v>
       </c>
       <c r="E60" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F60" s="3">
         <v>5700</v>
       </c>
       <c r="G60" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H60" s="3">
         <v>5700</v>
       </c>
       <c r="I60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3600</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4389,13 +4674,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4442,8 +4727,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5800</v>
+        <v>6400</v>
       </c>
       <c r="E66" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="F66" s="3">
         <v>5800</v>
       </c>
       <c r="G66" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H66" s="3">
         <v>5800</v>
       </c>
       <c r="I66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-14500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-14100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13400</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5700</v>
+        <v>-6300</v>
       </c>
       <c r="E76" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="F76" s="3">
         <v>-5700</v>
       </c>
       <c r="G76" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="H76" s="3">
         <v>-5700</v>
       </c>
       <c r="I76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-5500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5879,20 +6276,26 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6703,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,32 +6718,32 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -6318,22 +6751,22 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -6342,19 +6775,25 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,43 +6821,45 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -6426,11 +6867,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6450,17 +6891,23 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6669,29 +7128,35 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>8</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,37 +7527,37 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -7084,28 +7575,34 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>8</v>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7678,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7211,13 +7714,13 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7232,30 +7735,36 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,29 +807,29 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
@@ -842,11 +846,11 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
@@ -854,21 +858,24 @@
         <v>100</v>
       </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
-      <c r="AB8" s="3">
-        <v>100</v>
-      </c>
       <c r="AC8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -877,16 +884,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -895,13 +902,13 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -945,13 +952,16 @@
       <c r="AC9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -960,37 +970,37 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -1008,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
@@ -1020,16 +1030,19 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
       <c r="AC10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,32 +1242,35 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1267,11 +1287,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1287,8 +1307,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1370,8 +1393,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,114 +1445,118 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1535,35 +1565,35 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
@@ -1574,19 +1604,22 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,31 +1649,32 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-100</v>
-      </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1685,22 +1719,25 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,49 +1745,49 @@
         <v>-300</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
@@ -1765,25 +1802,28 @@
         <v>-100</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
-      <c r="AC21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1797,11 +1837,11 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
@@ -1815,11 +1855,11 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
@@ -1830,7 +1870,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1862,11 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1874,43 +1917,43 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
@@ -1919,37 +1962,40 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>200</v>
       </c>
-      <c r="AC23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2123,43 +2175,43 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
@@ -2168,37 +2220,40 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
-      <c r="AC26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2206,43 +2261,43 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
@@ -2251,37 +2306,40 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
-      <c r="AC27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,31 +2679,34 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2681,22 +2751,25 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,43 +2777,43 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
@@ -2749,37 +2822,40 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>200</v>
       </c>
-      <c r="AC33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2870,43 +2949,43 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
@@ -2915,125 +2994,131 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>200</v>
       </c>
-      <c r="AC35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,13 +3180,14 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3121,40 +3208,40 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
@@ -3162,8 +3249,8 @@
       <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
+      <c r="Y41" s="3">
+        <v>100</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
@@ -3174,11 +3261,14 @@
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3305,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3320,16 +3413,16 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
+      <c r="Y43" s="3">
+        <v>100</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
@@ -3340,11 +3433,14 @@
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3494,8 +3593,8 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>8</v>
@@ -3506,16 +3605,19 @@
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3536,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -3560,11 +3662,11 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
@@ -3572,13 +3674,13 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
+      <c r="Y46" s="3">
+        <v>200</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
@@ -3589,11 +3691,14 @@
       <c r="AB46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3743,8 +3851,8 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
@@ -3755,11 +3863,14 @@
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,13 +4296,16 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -4200,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -4224,11 +4350,11 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
@@ -4236,13 +4362,13 @@
         <v>100</v>
       </c>
       <c r="W54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
+      <c r="Y54" s="3">
+        <v>200</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
@@ -4253,11 +4379,14 @@
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4333,28 +4464,28 @@
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -4363,7 +4494,7 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -4372,23 +4503,23 @@
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4398,79 +4529,82 @@
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2500</v>
       </c>
       <c r="G58" s="3">
         <v>2500</v>
       </c>
       <c r="H58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I58" s="3">
         <v>2400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2300</v>
       </c>
       <c r="J58" s="3">
         <v>2300</v>
       </c>
       <c r="K58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1900</v>
       </c>
       <c r="N58" s="3">
         <v>1900</v>
       </c>
       <c r="O58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="P58" s="3">
         <v>1800</v>
       </c>
       <c r="Q58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1500</v>
       </c>
       <c r="T58" s="3">
         <v>1500</v>
       </c>
       <c r="U58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="V58" s="3">
         <v>1400</v>
       </c>
       <c r="W58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="X58" s="3">
         <v>1300</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
+      <c r="Y58" s="3">
+        <v>1300</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
@@ -4481,37 +4615,40 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2500</v>
       </c>
       <c r="F59" s="3">
         <v>2500</v>
       </c>
       <c r="G59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2800</v>
       </c>
       <c r="L59" s="3">
         <v>2800</v>
@@ -4520,41 +4657,41 @@
         <v>2800</v>
       </c>
       <c r="N59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O59" s="3">
         <v>2700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2500</v>
       </c>
       <c r="Q59" s="3">
         <v>2500</v>
       </c>
       <c r="R59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
-      </c>
-      <c r="V59" s="3">
-        <v>2000</v>
       </c>
       <c r="W59" s="3">
         <v>2000</v>
       </c>
       <c r="X59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4564,22 +4701,25 @@
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5700</v>
       </c>
       <c r="G60" s="3">
         <v>5700</v>
@@ -4588,56 +4728,56 @@
         <v>5700</v>
       </c>
       <c r="I60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3600</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4647,11 +4787,14 @@
       <c r="AB60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4680,10 +4823,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,77 +5220,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3600</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5145,11 +5303,14 @@
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,77 +5682,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-16000</v>
       </c>
       <c r="H72" s="3">
         <v>-16000</v>
       </c>
       <c r="I72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-14500</v>
       </c>
       <c r="Q72" s="3">
         <v>-14500</v>
       </c>
       <c r="R72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-14300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5591,11 +5765,14 @@
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,19 +6026,22 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-5700</v>
       </c>
       <c r="G76" s="3">
         <v>-5700</v>
@@ -5864,56 +6050,56 @@
         <v>-5700</v>
       </c>
       <c r="I76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-5600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-4500</v>
       </c>
       <c r="Q76" s="3">
         <v>-4500</v>
       </c>
       <c r="R76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="S76" s="3">
         <v>-4200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5923,11 +6109,14 @@
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6106,43 +6301,43 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
@@ -6151,37 +6346,40 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>200</v>
       </c>
-      <c r="AC81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6282,20 +6481,23 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>8</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
+      <c r="AB83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6724,11 +6941,11 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
@@ -6736,34 +6953,34 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -6772,28 +6989,31 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6849,20 +7070,20 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -6873,8 +7094,8 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6897,17 +7118,20 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>8</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7134,14 +7364,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7149,14 +7379,17 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7533,11 +7779,11 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
@@ -7545,17 +7791,17 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
@@ -7563,22 +7809,22 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
@@ -7587,7 +7833,7 @@
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7595,14 +7841,17 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7720,10 +7972,10 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7741,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -7759,12 +8011,15 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>DBMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -810,29 +814,29 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
@@ -849,11 +853,11 @@
         <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
@@ -861,16 +865,19 @@
         <v>100</v>
       </c>
       <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
-      <c r="AC8" s="3">
-        <v>100</v>
-      </c>
       <c r="AD8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,7 +885,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -887,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -905,13 +912,13 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -964,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -973,37 +983,37 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -1021,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
@@ -1033,16 +1043,19 @@
         <v>0</v>
       </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
       <c r="AD10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,35 +1262,38 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1290,11 +1310,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1310,8 +1330,8 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1396,8 +1419,8 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,120 +1472,124 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1568,35 +1598,35 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
@@ -1607,19 +1637,22 @@
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,34 +1683,35 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1722,75 +1756,78 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
@@ -1805,25 +1842,28 @@
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="3">
         <v>200</v>
       </c>
-      <c r="AD21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,7 +1871,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1840,11 +1880,11 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
@@ -1858,11 +1898,11 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
@@ -1873,7 +1913,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1905,58 +1945,61 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
@@ -1965,37 +2008,40 @@
         <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>200</v>
       </c>
-      <c r="AD23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,55 +2215,58 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
@@ -2223,84 +2275,87 @@
         <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>200</v>
       </c>
-      <c r="AD26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
@@ -2309,37 +2364,40 @@
         <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>200</v>
       </c>
-      <c r="AD27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,34 +2749,37 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2754,69 +2824,72 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
@@ -2825,37 +2898,40 @@
         <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>200</v>
       </c>
-      <c r="AD33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,55 +3016,58 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
@@ -2997,128 +3076,134 @@
         <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>200</v>
       </c>
-      <c r="AD35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,16 +3267,17 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -3211,40 +3298,40 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
@@ -3252,8 +3339,8 @@
       <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
+      <c r="Z41" s="3">
+        <v>100</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
@@ -3264,11 +3351,14 @@
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3401,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3416,16 +3509,16 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
+      <c r="Z43" s="3">
+        <v>100</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
@@ -3436,11 +3529,14 @@
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3596,8 +3695,8 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
@@ -3608,19 +3707,22 @@
       <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3641,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -3665,11 +3767,11 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
@@ -3677,13 +3779,13 @@
         <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
+      <c r="Z46" s="3">
+        <v>200</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
@@ -3694,11 +3796,14 @@
       <c r="AC46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3854,8 +3962,8 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
@@ -3866,11 +3974,14 @@
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,16 +4422,19 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -4329,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -4353,11 +4479,11 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
@@ -4365,13 +4491,13 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
+      <c r="Z54" s="3">
+        <v>200</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
@@ -4382,11 +4508,14 @@
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4467,28 +4598,28 @@
         <v>800</v>
       </c>
       <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -4497,7 +4628,7 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -4506,23 +4637,23 @@
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4532,82 +4663,85 @@
       <c r="AC57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2500</v>
       </c>
       <c r="H58" s="3">
         <v>2500</v>
       </c>
       <c r="I58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J58" s="3">
         <v>2400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2300</v>
       </c>
       <c r="K58" s="3">
         <v>2300</v>
       </c>
       <c r="L58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1900</v>
       </c>
       <c r="O58" s="3">
         <v>1900</v>
       </c>
       <c r="P58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="Q58" s="3">
         <v>1800</v>
       </c>
       <c r="R58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1500</v>
       </c>
       <c r="U58" s="3">
         <v>1500</v>
       </c>
       <c r="V58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="W58" s="3">
         <v>1400</v>
       </c>
       <c r="X58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="Y58" s="3">
         <v>1300</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
+      <c r="Z58" s="3">
+        <v>1300</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4618,40 +4752,43 @@
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2500</v>
       </c>
       <c r="G59" s="3">
         <v>2500</v>
       </c>
       <c r="H59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2800</v>
       </c>
       <c r="M59" s="3">
         <v>2800</v>
@@ -4660,41 +4797,41 @@
         <v>2800</v>
       </c>
       <c r="O59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2500</v>
       </c>
       <c r="R59" s="3">
         <v>2500</v>
       </c>
       <c r="S59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2100</v>
-      </c>
-      <c r="W59" s="3">
-        <v>2000</v>
       </c>
       <c r="X59" s="3">
         <v>2000</v>
       </c>
       <c r="Y59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1900</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4704,11 +4841,14 @@
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,13 +4856,13 @@
         <v>6600</v>
       </c>
       <c r="E60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5700</v>
       </c>
       <c r="H60" s="3">
         <v>5700</v>
@@ -4731,56 +4871,56 @@
         <v>5700</v>
       </c>
       <c r="J60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3600</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4790,11 +4930,14 @@
       <c r="AC60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4826,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,71 +5390,71 @@
         <v>6600</v>
       </c>
       <c r="E66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3600</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5306,11 +5464,14 @@
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5694,71 +5868,71 @@
         <v>-17200</v>
       </c>
       <c r="E72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-16000</v>
       </c>
       <c r="I72" s="3">
         <v>-16000</v>
       </c>
       <c r="J72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-14500</v>
       </c>
       <c r="R72" s="3">
         <v>-14500</v>
       </c>
       <c r="S72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-14300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5768,11 +5942,14 @@
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6038,13 +6224,13 @@
         <v>-6500</v>
       </c>
       <c r="E76" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-5700</v>
       </c>
       <c r="H76" s="3">
         <v>-5700</v>
@@ -6053,56 +6239,56 @@
         <v>-5700</v>
       </c>
       <c r="J76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-5600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-4500</v>
       </c>
       <c r="R76" s="3">
         <v>-4500</v>
       </c>
       <c r="S76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="T76" s="3">
         <v>-4200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
@@ -6112,11 +6298,14 @@
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,146 +6390,152 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
@@ -6349,37 +6544,40 @@
         <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>200</v>
       </c>
-      <c r="AD81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6484,20 +6683,23 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>8</v>
+      <c r="AA83" s="3">
+        <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
+      <c r="AC83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,7 +7152,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -6944,11 +7161,11 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
@@ -6956,34 +7173,34 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -6992,28 +7209,31 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
       <c r="AB89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7073,20 +7294,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -7097,8 +7318,8 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -7121,17 +7342,20 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>8</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7367,14 +7597,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7382,14 +7612,17 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,16 +8007,19 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -7782,11 +8028,11 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
@@ -7794,17 +8040,17 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
@@ -7812,22 +8058,22 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -7836,7 +8082,7 @@
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7844,14 +8090,17 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7975,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -7996,16 +8248,16 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -8014,12 +8266,15 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
